--- a/Neural Network for Finance/BTCUSDTW.xlsx
+++ b/Neural Network for Finance/BTCUSDTW.xlsx
@@ -15835,12 +15835,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>23917.51000000</t>
+          <t>23944.73000000</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>139486.36440000</t>
+          <t>146796.62286000</t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -15848,20 +15848,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>3327031772.95513470</t>
+          <t>3501756174.58078670</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>4873875</v>
+        <v>5150048</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>70427.79463000</t>
+          <t>74088.96360000</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>1679828832.85337710</t>
+          <t>1767343752.10381690</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">

--- a/Neural Network for Finance/BTCUSDTW.xlsx
+++ b/Neural Network for Finance/BTCUSDTW.xlsx
@@ -15835,12 +15835,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>23944.73000000</t>
+          <t>23952.84000000</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>146796.62286000</t>
+          <t>147075.62656000</t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -15848,20 +15848,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>3501756174.58078670</t>
+          <t>3508436994.01685440</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>5150048</v>
+        <v>5164246</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>74088.96360000</t>
+          <t>74229.23235000</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>1767343752.10381690</t>
+          <t>1770702724.06625130</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">

--- a/Neural Network for Finance/BTCUSDTW.xlsx
+++ b/Neural Network for Finance/BTCUSDTW.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M262"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15825,22 +15825,22 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>24245.00000000</t>
+          <t>25047.56000000</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>23154.25000000</t>
+          <t>22664.69000000</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>23952.84000000</t>
+          <t>24305.24000000</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>147075.62656000</t>
+          <t>1251083.26468000</t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -15848,23 +15848,554 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>3508436994.01685440</t>
+          <t>30077619286.84656770</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>5164246</v>
+        <v>43311786</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>74229.23235000</t>
+          <t>625522.69768000</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>1770702724.06625130</t>
+          <t>15039436995.29061950</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1660521600000</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>24305.25000000</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>25211.32000000</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>20761.90000000</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>21515.61000000</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>1402957.39876000</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>1661126399999</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>32016009263.43493180</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>46017032</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>698823.59671000</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>15948153490.60180970</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1661126400000</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>21516.70000000</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>21900.00000000</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>19520.00000000</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>19555.61000000</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>1343190.86000000</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>1661731199999</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>28273617081.52032370</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>41486274</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>669270.17315000</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>14089524497.01568180</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1661731200000</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>19555.61000000</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>20576.25000000</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>19540.00000000</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>20000.30000000</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>1527594.84529000</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>1662335999999</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>30597230623.48951400</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
+        <v>38080138</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>762324.89492000</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>15270693969.60497590</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1662336000000</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>20000.30000000</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>21860.00000000</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>18510.77000000</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>21826.87000000</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2146685.76233000</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>1662940799999</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>43460053550.45976670</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>41587411</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>1074020.48582000</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>21751877355.13041250</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1662940800000</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>21826.87000000</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>22799.00000000</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>19320.01000000</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>19416.18000000</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2218565.59694000</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>1663545599999</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>45784151832.43753880</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>41728131</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>1107144.73306000</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>22859382949.06557150</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1663545600000</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>19417.45000000</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>19956.00000000</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>18125.98000000</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>18807.38000000</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2285541.48793000</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>1664150399999</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>43488049829.07041010</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>39408640</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>1141577.20385000</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>21724013825.41485850</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1664150400000</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>18809.13000000</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>20385.86000000</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>18471.28000000</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>19056.80000000</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2777070.91238000</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>1664755199999</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>53761170640.89073340</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>39023576</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>1387219.15628000</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>26857951663.90879500</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1664755200000</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>19057.74000000</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>20475.00000000</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>18959.68000000</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>19439.02000000</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>1690215.44019000</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>1665359999999</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>33498469288.87016030</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>28764711</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>847579.42346000</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>16800184632.09654350</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1665360000000</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>19439.96000000</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>19951.87000000</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>18190.00000000</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>19175.86000000</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>1404814.74082000</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>1665964799999</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>26949592667.33566080</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>27587086</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>700157.27233000</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>13433257689.75192720</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
         <is>
           <t>0</t>
         </is>
